--- a/app-server/src/main/resources/2021_organizers.xlsx
+++ b/app-server/src/main/resources/2021_organizers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21CC902-584D-6348-A3F9-4280C8C61F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500E08A-4292-9A43-8D98-216F38584729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="15940" xr2:uid="{FE799E17-B61D-1342-B0EB-A182A70A4A23}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Song</t>
   </si>
   <si>
-    <t>Eunjee_Song@baylor.edu</t>
-  </si>
-  <si>
     <t>Baylor University</t>
   </si>
   <si>
@@ -163,16 +160,27 @@
   </si>
   <si>
     <t>Hansung University</t>
+  </si>
+  <si>
+    <t>eunjee_song@baylor.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,13 +203,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,11 +575,11 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -576,13 +587,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -593,16 +604,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -610,33 +621,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -644,16 +655,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -661,59 +672,59 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="mailto:chung1@kennesaw.edu" xr:uid="{D21F6DF9-A811-394B-A131-A6EF3DDADE27}"/>
-    <hyperlink ref="C3" r:id="rId2" display="mailto:Eunjee_Song@baylor.edu" xr:uid="{A129FFBA-7CE7-EF46-A3B4-587D6FC7B0D1}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A129FFBA-7CE7-EF46-A3B4-587D6FC7B0D1}"/>
     <hyperlink ref="C4" r:id="rId3" display="mailto:hshahria@kennesaw.edu" xr:uid="{47373207-4468-C14B-9981-0D70CF5C9CBF}"/>
     <hyperlink ref="C5" r:id="rId4" display="mailto:editoracr@gmail.com" xr:uid="{ECCC5A8F-6047-2F47-85EE-F54500629C04}"/>
     <hyperlink ref="C6" r:id="rId5" display="mailto:jiman@ssu.ac.kr" xr:uid="{A093DBA7-4CB5-584C-AA77-8E389E7B2399}"/>

--- a/app-server/src/main/resources/2021_organizers.xlsx
+++ b/app-server/src/main/resources/2021_organizers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0500E08A-4292-9A43-8D98-216F38584729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93A2F8-2DD9-CA44-B341-1C08BBD6D105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="15940" xr2:uid="{FE799E17-B61D-1342-B0EB-A182A70A4A23}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>First Name</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>eunjee_song@baylor.edu</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Bushong</t>
+  </si>
+  <si>
+    <t>vinbush@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -525,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75648735-C5DF-AE4B-ABC1-5FA0B6013742}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,6 +728,23 @@
       </c>
       <c r="E11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -733,6 +759,7 @@
     <hyperlink ref="C9" r:id="rId8" display="mailto:a.bechini@ing.unipi.it" xr:uid="{583B4799-E1AB-224A-8367-E195B298C22E}"/>
     <hyperlink ref="C10" r:id="rId9" display="mailto:rosa.meo@unito.it" xr:uid="{8FA47EA4-5333-D744-AEDE-7D6C930FE1BE}"/>
     <hyperlink ref="C11" r:id="rId10" display="mailto:jyheo@hansung.ac.kr" xr:uid="{79371164-6B48-BC48-B260-6A5C4CA69C0A}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{BCE0BDBC-3DD8-5A4C-AFE8-3F134320D51B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
